--- a/docs/assets/2023-09-25_Ereignistypen.xlsx
+++ b/docs/assets/2023-09-25_Ereignistypen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="276">
   <si>
     <t xml:space="preserve">Ereignistypen </t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Erwerb</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q1369832</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q1369832</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4128692-3</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Inaugural Lecture</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q609261</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q609261</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4426602-9</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Arranging</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q379755</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q379755</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4285138-5</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Performance (Film and Performing Arts)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q35140</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q35140</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4143388-9</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Musikaufführung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q106805967</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q106805967</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/7502757-4</t>
@@ -130,13 +130,13 @@
     <t xml:space="preserve">Kunstausstellung, Gruppenausstellung, Einzelausstellung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q464980</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q464980</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4129601-1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054766</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054766</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00225</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Vernissage, Private View, Opening Reception, Gallery Opening, Gallery Reception</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q772257</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q772257</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4435671-7</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Prize, Ehrung, Preis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q618779</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q618779</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4338046-3</t>
@@ -181,13 +181,13 @@
     <t xml:space="preserve">Auftrag, Order</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q566889</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q566889</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4003557-8</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300157782</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300157782</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00226</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Revision, Umarbeitung, Adaption, Edit, Editing, Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q109243379</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q109243379</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4120981-3</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Konvertierung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q1783551</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q1783551</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4138254-7</t>
@@ -235,13 +235,13 @@
     <t xml:space="preserve">Retrodigitalisierung, Retrodigitisation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q843958</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q843958</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4123065-6</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300202383</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300202383</t>
   </si>
   <si>
     <t xml:space="preserve">Entwurf</t>
@@ -253,13 +253,13 @@
     <t xml:space="preserve">Entwerfen, Gestaltung, Designing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q1519454</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q1519454</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4121208-3</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300102051</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300102051</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00224</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">Erstsendung, First TV Broadcast</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q118581977</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q118581977</t>
   </si>
   <si>
     <t xml:space="preserve">Aquisition</t>
@@ -283,22 +283,19 @@
     <t xml:space="preserve">Akquise, Erwerbung, Zugang (Erwerb), Transfer of Legal Ownership, Transfer of Title </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q3604747</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q3604747</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4212536-4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vocab.getty.edu/page/aat/300157782</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00001</t>
   </si>
   <si>
     <t xml:space="preserve">Festival</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q132241</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q132241</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4154198-4</t>
@@ -313,7 +310,7 @@
     <t xml:space="preserve">Filmfestspiel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q220505</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q220505</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4359942-4</t>
@@ -328,7 +325,7 @@
     <t xml:space="preserve">Vorführung, Screening</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q2295790</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q2295790</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4196355-6</t>
@@ -343,13 +340,13 @@
     <t xml:space="preserve">Galvanotechnik, Galvanische Beschichtung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q3503392</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q3503392</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4129892-5</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054000</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054000</t>
   </si>
   <si>
     <t xml:space="preserve">Gast-Performance</t>
@@ -361,7 +358,7 @@
     <t xml:space="preserve">Gastspiel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q40249767</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q40249767</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4255674-0</t>
@@ -376,7 +373,7 @@
     <t xml:space="preserve">Begriffliche Schöpfung, Intellektuelle Schöpfung, Konzeptuelle Schöpfung, Künstlerische Schöpfung, Conception</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q11398090</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q11398090</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00012</t>
@@ -391,13 +388,13 @@
     <t xml:space="preserve">Produktion, Fabrikation, Fertigung, Manufacturing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q739302</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q739302</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4159653-5</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054713</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054713</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00007</t>
@@ -409,13 +406,13 @@
     <t xml:space="preserve">Studiogespräch</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q178651</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q178651</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4027503-6</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300026392</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300026392</t>
   </si>
   <si>
     <t xml:space="preserve">Kolloquium</t>
@@ -424,7 +421,7 @@
     <t xml:space="preserve">Colloquium</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q4228029</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q4228029</t>
   </si>
   <si>
     <t xml:space="preserve">Konzert</t>
@@ -436,7 +433,7 @@
     <t xml:space="preserve">Konzertabend</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q182832</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q182832</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4317474-7</t>
@@ -451,7 +448,7 @@
     <t xml:space="preserve">Series of Concerts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q107736918</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q107736918</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4432417-0</t>
@@ -463,7 +460,7 @@
     <t xml:space="preserve">Master Class</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q2537465</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q2537465</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/1033761672</t>
@@ -478,7 +475,7 @@
     <t xml:space="preserve">Komposition, Komponieren</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q11895763</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q11895763</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4133320-2</t>
@@ -490,7 +487,7 @@
     <t xml:space="preserve">Music Festival</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q868557</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q868557</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4170821-0</t>
@@ -502,13 +499,13 @@
     <t xml:space="preserve">Aktion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q213156</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q213156</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4173750-7</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300121445</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300121445</t>
   </si>
   <si>
     <t xml:space="preserve">Planung</t>
@@ -517,13 +514,13 @@
     <t xml:space="preserve">Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q309100 </t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q309100 </t>
   </si>
   <si>
     <t xml:space="preserve">http://d-nb.info/gnd/4046235-3 </t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054425</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054425</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00032</t>
@@ -538,7 +535,7 @@
     <t xml:space="preserve">Podiumsgespräch</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q2100278</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q2100278</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4614247-2</t>
@@ -550,7 +547,7 @@
     <t xml:space="preserve">Award Ceremony</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q4504495</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q4504495</t>
   </si>
   <si>
     <t xml:space="preserve">Premiere</t>
@@ -562,13 +559,13 @@
     <t xml:space="preserve">Erstaufführung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q204854</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q204854</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4519367-8</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300069101</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300069101</t>
   </si>
   <si>
     <t xml:space="preserve">Probe</t>
@@ -577,7 +574,7 @@
     <t xml:space="preserve">Rehearsal</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q1751775</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q1751775</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/7660069-5</t>
@@ -592,13 +589,13 @@
     <t xml:space="preserve">Oration, Address, Ansprache</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q861911</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q861911</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4048882-2</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300417595</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300417595</t>
   </si>
   <si>
     <t xml:space="preserve">Rundgang</t>
@@ -610,10 +607,10 @@
     <t xml:space="preserve">Jahresausstellung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q55336815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300311622</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q55336815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300311622</t>
   </si>
   <si>
     <t xml:space="preserve">Schnitt</t>
@@ -625,7 +622,7 @@
     <t xml:space="preserve">Montage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q237893</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q237893</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4281773-0</t>
@@ -640,7 +637,7 @@
     <t xml:space="preserve">Hochschulabschluss, Graduierung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q1054021</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q1054021</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4332831-3</t>
@@ -655,7 +652,7 @@
     <t xml:space="preserve">Sommerschule, Sommerhochschule, Sommeruniversität</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q647882</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q647882</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4331584-7</t>
@@ -670,13 +667,13 @@
     <t xml:space="preserve">Wissenschaftliche Konferenz, Konferenz, Academic Conference, Scientific Conference, Kongress, Tagung, Convention</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q2020153</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q2020153</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4032055-8</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054789</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054789</t>
   </si>
   <si>
     <t xml:space="preserve">Themenwoche</t>
@@ -688,7 +685,7 @@
     <t xml:space="preserve">Themed Week</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q10692570</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q10692570</t>
   </si>
   <si>
     <t xml:space="preserve">Tonaufnahme</t>
@@ -700,13 +697,13 @@
     <t xml:space="preserve">Tonaufzeichnung, Schallaufnahme, Audioaufzeichnung, Audio Recording</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q5057302</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q5057302</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4052020-1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300255735</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300255735</t>
   </si>
   <si>
     <t xml:space="preserve">Umgestaltung</t>
@@ -718,7 +715,7 @@
     <t xml:space="preserve">Umwandlung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q10357784</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q10357784</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4452586-2</t>
@@ -733,7 +730,7 @@
     <t xml:space="preserve">World Première</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q2500107</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q2500107</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4236166-7</t>
@@ -748,7 +745,7 @@
     <t xml:space="preserve">Rundfunk-Premiere, First Radio Broadcast</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q118581694</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q118581694</t>
   </si>
   <si>
     <t xml:space="preserve">Veröffentlichung</t>
@@ -760,13 +757,13 @@
     <t xml:space="preserve">Veröffentlichen, Publication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q3972943</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q3972943</t>
   </si>
   <si>
     <t xml:space="preserve">http://d-nb.info/gnd/4187925-9</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054686</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054686</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00228</t>
@@ -781,13 +778,13 @@
     <t xml:space="preserve">Vermarktung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q39809</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q39809</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4127117-8</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300054673</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300054673</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00401</t>
@@ -802,13 +799,13 @@
     <t xml:space="preserve">Lehrveranstaltung, Talk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q603773</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q603773</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4117405-7</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300026673</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300026673</t>
   </si>
   <si>
     <t xml:space="preserve">Vortrag</t>
@@ -820,7 +817,7 @@
     <t xml:space="preserve">Fachvortrag, Präsentation, Buchpräsentation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q604733</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q604733</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4064035-8</t>
@@ -829,7 +826,7 @@
     <t xml:space="preserve">Workshop</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q27556165</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q27556165</t>
   </si>
   <si>
     <t xml:space="preserve">Zerstörung</t>
@@ -841,13 +838,13 @@
     <t xml:space="preserve">Vernichtung</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wikidata.org/wiki/Q17781833</t>
+    <t xml:space="preserve">https://www.wikidata.org/entity/Q17781833</t>
   </si>
   <si>
     <t xml:space="preserve">https://d-nb.info/gnd/4222882-7</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vocab.getty.edu/page/aat/300053087</t>
+    <t xml:space="preserve">https://vocab.getty.edu/aat/300053087</t>
   </si>
   <si>
     <t xml:space="preserve">http://terminology.lido-schema.org/lido00026</t>
@@ -865,6 +862,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1003,23 +1001,27 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,11 +1041,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,7 +1053,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,7 +1061,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1145,7 +1147,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1500,180 +1502,180 @@
         <v>88</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1681,113 +1683,113 @@
     </row>
     <row r="30" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>27</v>
@@ -1795,54 +1797,54 @@
     </row>
     <row r="36" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1850,172 +1852,172 @@
     </row>
     <row r="39" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2023,75 +2025,75 @@
     </row>
     <row r="48" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -2099,100 +2101,100 @@
     </row>
     <row r="52" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -2200,25 +2202,25 @@
     </row>
     <row r="57" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,136 +2240,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://www.wikidata.org/wiki/Q1369832"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://d-nb.info/gnd/4128692-3"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://www.wikidata.org/wiki/Q609261"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://d-nb.info/gnd/4426602-9"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://www.wikidata.org/wiki/Q379755"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://d-nb.info/gnd/4285138-5"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.wikidata.org/wiki/Q35140"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://d-nb.info/gnd/4143388-9"/>
-    <hyperlink ref="G9" r:id="rId9" display="http://terminology.lido-schema.org/lido00030"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://www.wikidata.org/wiki/Q106805967"/>
-    <hyperlink ref="E10" r:id="rId11" display="https://d-nb.info/gnd/7502757-4"/>
-    <hyperlink ref="G10" r:id="rId12" display="http://terminology.lido-schema.org/lido00030"/>
-    <hyperlink ref="D11" r:id="rId13" display="https://www.wikidata.org/wiki/Q464980"/>
-    <hyperlink ref="E11" r:id="rId14" display="https://d-nb.info/gnd/4129601-1"/>
-    <hyperlink ref="F11" r:id="rId15" display="http://vocab.getty.edu/page/aat/300054766"/>
-    <hyperlink ref="G11" r:id="rId16" display="http://terminology.lido-schema.org/lido00225"/>
-    <hyperlink ref="D12" r:id="rId17" display="https://www.wikidata.org/wiki/Q772257"/>
-    <hyperlink ref="E12" r:id="rId18" display="https://d-nb.info/gnd/4435671-7"/>
-    <hyperlink ref="D13" r:id="rId19" display="https://www.wikidata.org/wiki/Q618779"/>
-    <hyperlink ref="E13" r:id="rId20" display="https://d-nb.info/gnd/4338046-3"/>
-    <hyperlink ref="D14" r:id="rId21" display="https://www.wikidata.org/wiki/Q566889"/>
-    <hyperlink ref="E14" r:id="rId22" display="https://d-nb.info/gnd/4003557-8"/>
-    <hyperlink ref="F14" r:id="rId23" display="http://vocab.getty.edu/page/aat/300157782"/>
-    <hyperlink ref="G14" r:id="rId24" display="http://terminology.lido-schema.org/lido00226"/>
-    <hyperlink ref="D15" r:id="rId25" display="https://www.wikidata.org/wiki/Q109243379"/>
-    <hyperlink ref="E15" r:id="rId26" display="https://d-nb.info/gnd/4120981-3"/>
-    <hyperlink ref="G15" r:id="rId27" display="http://terminology.lido-schema.org/lido00006"/>
-    <hyperlink ref="D16" r:id="rId28" display="https://www.wikidata.org/wiki/Q1783551"/>
-    <hyperlink ref="E16" r:id="rId29" display="https://d-nb.info/gnd/4138254-7"/>
-    <hyperlink ref="D17" r:id="rId30" display="https://www.wikidata.org/wiki/Q843958"/>
-    <hyperlink ref="E17" r:id="rId31" display="https://d-nb.info/gnd/4123065-6"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://vocab.getty.edu/page/aat/300202383"/>
-    <hyperlink ref="D18" r:id="rId33" display="https://www.wikidata.org/wiki/Q1519454"/>
-    <hyperlink ref="E18" r:id="rId34" display="https://d-nb.info/gnd/4121208-3"/>
-    <hyperlink ref="F18" r:id="rId35" display="http://vocab.getty.edu/page/aat/300102051"/>
-    <hyperlink ref="G18" r:id="rId36" display="http://terminology.lido-schema.org/lido00224"/>
-    <hyperlink ref="D19" r:id="rId37" display="https://www.wikidata.org/wiki/Q118581977"/>
-    <hyperlink ref="D20" r:id="rId38" display="https://www.wikidata.org/wiki/Q3604747"/>
-    <hyperlink ref="E20" r:id="rId39" display="https://d-nb.info/gnd/4212536-4"/>
-    <hyperlink ref="F20" r:id="rId40" display="https://vocab.getty.edu/page/aat/300157782"/>
-    <hyperlink ref="G20" r:id="rId41" display="http://terminology.lido-schema.org/lido00001"/>
-    <hyperlink ref="D21" r:id="rId42" display="https://www.wikidata.org/wiki/Q132241"/>
-    <hyperlink ref="E21" r:id="rId43" display="https://d-nb.info/gnd/4154198-4"/>
-    <hyperlink ref="D22" r:id="rId44" display="https://www.wikidata.org/wiki/Q220505"/>
-    <hyperlink ref="E22" r:id="rId45" display="https://d-nb.info/gnd/4359942-4"/>
-    <hyperlink ref="D23" r:id="rId46" display="https://www.wikidata.org/wiki/Q2295790"/>
-    <hyperlink ref="E23" r:id="rId47" display="https://d-nb.info/gnd/4196355-6"/>
-    <hyperlink ref="D24" r:id="rId48" display="https://www.wikidata.org/wiki/Q3503392"/>
-    <hyperlink ref="E24" r:id="rId49" display="https://d-nb.info/gnd/4129892-5"/>
-    <hyperlink ref="F24" r:id="rId50" display="http://vocab.getty.edu/page/aat/300054000"/>
-    <hyperlink ref="D25" r:id="rId51" display="https://www.wikidata.org/wiki/Q40249767"/>
-    <hyperlink ref="E25" r:id="rId52" display="https://d-nb.info/gnd/4255674-0"/>
-    <hyperlink ref="D26" r:id="rId53" display="https://www.wikidata.org/wiki/Q11398090"/>
-    <hyperlink ref="G26" r:id="rId54" display="http://terminology.lido-schema.org/lido00012"/>
-    <hyperlink ref="D27" r:id="rId55" display="https://www.wikidata.org/wiki/Q739302"/>
-    <hyperlink ref="E27" r:id="rId56" display="https://d-nb.info/gnd/4159653-5"/>
-    <hyperlink ref="F27" r:id="rId57" display="http://vocab.getty.edu/page/aat/300054713"/>
-    <hyperlink ref="G27" r:id="rId58" display="http://terminology.lido-schema.org/lido00007"/>
-    <hyperlink ref="D28" r:id="rId59" display="https://www.wikidata.org/wiki/Q178651"/>
-    <hyperlink ref="E28" r:id="rId60" display="https://d-nb.info/gnd/4027503-6"/>
-    <hyperlink ref="F28" r:id="rId61" display="http://vocab.getty.edu/page/aat/300026392"/>
-    <hyperlink ref="D29" r:id="rId62" display="https://www.wikidata.org/wiki/Q4228029"/>
-    <hyperlink ref="D30" r:id="rId63" display="https://www.wikidata.org/wiki/Q182832"/>
-    <hyperlink ref="E30" r:id="rId64" display="https://d-nb.info/gnd/4317474-7"/>
-    <hyperlink ref="D31" r:id="rId65" display="https://www.wikidata.org/wiki/Q107736918"/>
-    <hyperlink ref="E31" r:id="rId66" display="https://d-nb.info/gnd/4432417-0"/>
-    <hyperlink ref="D32" r:id="rId67" display="https://www.wikidata.org/wiki/Q2537465"/>
-    <hyperlink ref="E32" r:id="rId68" display="https://d-nb.info/gnd/1033761672"/>
-    <hyperlink ref="D33" r:id="rId69" display="https://www.wikidata.org/wiki/Q11895763"/>
-    <hyperlink ref="E33" r:id="rId70" display="https://d-nb.info/gnd/4133320-2"/>
-    <hyperlink ref="D34" r:id="rId71" display="https://www.wikidata.org/wiki/Q868557"/>
-    <hyperlink ref="E34" r:id="rId72" display="https://d-nb.info/gnd/4170821-0"/>
-    <hyperlink ref="D35" r:id="rId73" display="https://www.wikidata.org/wiki/Q213156"/>
-    <hyperlink ref="E35" r:id="rId74" display="https://d-nb.info/gnd/4173750-7"/>
-    <hyperlink ref="F35" r:id="rId75" display="http://vocab.getty.edu/page/aat/300121445"/>
-    <hyperlink ref="G35" r:id="rId76" display="http://terminology.lido-schema.org/lido00030"/>
-    <hyperlink ref="D36" r:id="rId77" display="https://www.wikidata.org/wiki/Q309100 "/>
-    <hyperlink ref="E36" r:id="rId78" display="http://d-nb.info/gnd/4046235-3 "/>
-    <hyperlink ref="F36" r:id="rId79" display="http://vocab.getty.edu/page/aat/300054425"/>
-    <hyperlink ref="G36" r:id="rId80" display="http://terminology.lido-schema.org/lido00032"/>
-    <hyperlink ref="D37" r:id="rId81" display="https://www.wikidata.org/wiki/Q2100278"/>
-    <hyperlink ref="E37" r:id="rId82" display="https://d-nb.info/gnd/4614247-2"/>
-    <hyperlink ref="D38" r:id="rId83" display="https://www.wikidata.org/wiki/Q4504495"/>
-    <hyperlink ref="D39" r:id="rId84" display="https://www.wikidata.org/wiki/Q204854"/>
-    <hyperlink ref="E39" r:id="rId85" display="https://d-nb.info/gnd/4519367-8"/>
-    <hyperlink ref="F39" r:id="rId86" display="http://vocab.getty.edu/page/aat/300069101"/>
-    <hyperlink ref="D40" r:id="rId87" display="https://www.wikidata.org/wiki/Q1751775"/>
-    <hyperlink ref="E40" r:id="rId88" display="https://d-nb.info/gnd/7660069-5"/>
-    <hyperlink ref="D41" r:id="rId89" display="https://www.wikidata.org/wiki/Q861911"/>
-    <hyperlink ref="E41" r:id="rId90" display="https://d-nb.info/gnd/4048882-2"/>
-    <hyperlink ref="F41" r:id="rId91" display="http://vocab.getty.edu/page/aat/300417595"/>
-    <hyperlink ref="D42" r:id="rId92" display="https://www.wikidata.org/wiki/Q55336815"/>
-    <hyperlink ref="F42" r:id="rId93" display="http://vocab.getty.edu/page/aat/300311622"/>
-    <hyperlink ref="D43" r:id="rId94" display="https://www.wikidata.org/wiki/Q237893"/>
-    <hyperlink ref="E43" r:id="rId95" display="https://d-nb.info/gnd/4281773-0"/>
-    <hyperlink ref="D44" r:id="rId96" display="https://www.wikidata.org/wiki/Q1054021"/>
-    <hyperlink ref="E44" r:id="rId97" display="https://d-nb.info/gnd/4332831-3"/>
-    <hyperlink ref="D45" r:id="rId98" display="https://www.wikidata.org/wiki/Q647882"/>
-    <hyperlink ref="E45" r:id="rId99" display="https://d-nb.info/gnd/4331584-7"/>
-    <hyperlink ref="D46" r:id="rId100" display="https://www.wikidata.org/wiki/Q2020153"/>
-    <hyperlink ref="E46" r:id="rId101" display="https://d-nb.info/gnd/4032055-8"/>
-    <hyperlink ref="F46" r:id="rId102" display="http://vocab.getty.edu/page/aat/300054789"/>
-    <hyperlink ref="D47" r:id="rId103" display="https://www.wikidata.org/wiki/Q10692570"/>
-    <hyperlink ref="D48" r:id="rId104" display="https://www.wikidata.org/wiki/Q5057302"/>
-    <hyperlink ref="E48" r:id="rId105" display="https://d-nb.info/gnd/4052020-1"/>
-    <hyperlink ref="F48" r:id="rId106" display="http://vocab.getty.edu/page/aat/300255735"/>
-    <hyperlink ref="D49" r:id="rId107" display="https://www.wikidata.org/wiki/Q10357784"/>
-    <hyperlink ref="E49" r:id="rId108" display="https://d-nb.info/gnd/4452586-2"/>
-    <hyperlink ref="G49" r:id="rId109" display="http://terminology.lido-schema.org/lido00029"/>
-    <hyperlink ref="D50" r:id="rId110" display="https://www.wikidata.org/wiki/Q2500107"/>
-    <hyperlink ref="E50" r:id="rId111" display="https://d-nb.info/gnd/4236166-7"/>
-    <hyperlink ref="D51" r:id="rId112" display="https://www.wikidata.org/wiki/Q118581694"/>
-    <hyperlink ref="D52" r:id="rId113" display="https://www.wikidata.org/wiki/Q3972943"/>
-    <hyperlink ref="E52" r:id="rId114" display="http://d-nb.info/gnd/4187925-9"/>
-    <hyperlink ref="F52" r:id="rId115" display="http://vocab.getty.edu/page/aat/300054686"/>
-    <hyperlink ref="G52" r:id="rId116" display="http://terminology.lido-schema.org/lido00228"/>
-    <hyperlink ref="D53" r:id="rId117" display="https://www.wikidata.org/wiki/Q39809"/>
-    <hyperlink ref="E53" r:id="rId118" display="https://d-nb.info/gnd/4127117-8"/>
-    <hyperlink ref="F53" r:id="rId119" display="http://vocab.getty.edu/page/aat/300054673"/>
-    <hyperlink ref="G53" r:id="rId120" display="http://terminology.lido-schema.org/lido00401"/>
-    <hyperlink ref="D54" r:id="rId121" display="https://www.wikidata.org/wiki/Q603773"/>
-    <hyperlink ref="E54" r:id="rId122" display="https://d-nb.info/gnd/4117405-7"/>
-    <hyperlink ref="F54" r:id="rId123" display="http://vocab.getty.edu/page/aat/300026673"/>
-    <hyperlink ref="D55" r:id="rId124" display="https://www.wikidata.org/wiki/Q604733"/>
-    <hyperlink ref="E55" r:id="rId125" display="https://d-nb.info/gnd/4064035-8"/>
-    <hyperlink ref="D56" r:id="rId126" display="https://www.wikidata.org/wiki/Q27556165"/>
-    <hyperlink ref="D57" r:id="rId127" display="https://www.wikidata.org/wiki/Q17781833"/>
-    <hyperlink ref="E57" r:id="rId128" display="https://d-nb.info/gnd/4222882-7"/>
-    <hyperlink ref="F57" r:id="rId129" display="http://vocab.getty.edu/page/aat/300053087"/>
-    <hyperlink ref="G57" r:id="rId130" display="http://terminology.lido-schema.org/lido00026"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://d-nb.info/gnd/4128692-3"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://d-nb.info/gnd/4426602-9"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://d-nb.info/gnd/4285138-5"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://d-nb.info/gnd/4143388-9"/>
+    <hyperlink ref="G9" r:id="rId5" display="http://terminology.lido-schema.org/lido00030"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://d-nb.info/gnd/7502757-4"/>
+    <hyperlink ref="G10" r:id="rId7" display="http://terminology.lido-schema.org/lido00030"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://d-nb.info/gnd/4129601-1"/>
+    <hyperlink ref="G11" r:id="rId9" display="http://terminology.lido-schema.org/lido00225"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://d-nb.info/gnd/4435671-7"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://d-nb.info/gnd/4338046-3"/>
+    <hyperlink ref="E14" r:id="rId12" display="https://d-nb.info/gnd/4003557-8"/>
+    <hyperlink ref="G14" r:id="rId13" display="http://terminology.lido-schema.org/lido00226"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://d-nb.info/gnd/4120981-3"/>
+    <hyperlink ref="G15" r:id="rId15" display="http://terminology.lido-schema.org/lido00006"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://d-nb.info/gnd/4138254-7"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://d-nb.info/gnd/4123065-6"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://d-nb.info/gnd/4121208-3"/>
+    <hyperlink ref="G18" r:id="rId19" display="http://terminology.lido-schema.org/lido00224"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://d-nb.info/gnd/4212536-4"/>
+    <hyperlink ref="G20" r:id="rId21" display="http://terminology.lido-schema.org/lido00001"/>
+    <hyperlink ref="E21" r:id="rId22" display="https://d-nb.info/gnd/4154198-4"/>
+    <hyperlink ref="E22" r:id="rId23" display="https://d-nb.info/gnd/4359942-4"/>
+    <hyperlink ref="E23" r:id="rId24" display="https://d-nb.info/gnd/4196355-6"/>
+    <hyperlink ref="E24" r:id="rId25" display="https://d-nb.info/gnd/4129892-5"/>
+    <hyperlink ref="E25" r:id="rId26" display="https://d-nb.info/gnd/4255674-0"/>
+    <hyperlink ref="G26" r:id="rId27" display="http://terminology.lido-schema.org/lido00012"/>
+    <hyperlink ref="E27" r:id="rId28" display="https://d-nb.info/gnd/4159653-5"/>
+    <hyperlink ref="G27" r:id="rId29" display="http://terminology.lido-schema.org/lido00007"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://d-nb.info/gnd/4027503-6"/>
+    <hyperlink ref="E30" r:id="rId31" display="https://d-nb.info/gnd/4317474-7"/>
+    <hyperlink ref="E31" r:id="rId32" display="https://d-nb.info/gnd/4432417-0"/>
+    <hyperlink ref="E32" r:id="rId33" display="https://d-nb.info/gnd/1033761672"/>
+    <hyperlink ref="E33" r:id="rId34" display="https://d-nb.info/gnd/4133320-2"/>
+    <hyperlink ref="E34" r:id="rId35" display="https://d-nb.info/gnd/4170821-0"/>
+    <hyperlink ref="E35" r:id="rId36" display="https://d-nb.info/gnd/4173750-7"/>
+    <hyperlink ref="G35" r:id="rId37" display="http://terminology.lido-schema.org/lido00030"/>
+    <hyperlink ref="E36" r:id="rId38" display="http://d-nb.info/gnd/4046235-3 "/>
+    <hyperlink ref="G36" r:id="rId39" display="http://terminology.lido-schema.org/lido00032"/>
+    <hyperlink ref="E37" r:id="rId40" display="https://d-nb.info/gnd/4614247-2"/>
+    <hyperlink ref="E39" r:id="rId41" display="https://d-nb.info/gnd/4519367-8"/>
+    <hyperlink ref="E40" r:id="rId42" display="https://d-nb.info/gnd/7660069-5"/>
+    <hyperlink ref="E41" r:id="rId43" display="https://d-nb.info/gnd/4048882-2"/>
+    <hyperlink ref="E43" r:id="rId44" display="https://d-nb.info/gnd/4281773-0"/>
+    <hyperlink ref="E44" r:id="rId45" display="https://d-nb.info/gnd/4332831-3"/>
+    <hyperlink ref="E45" r:id="rId46" display="https://d-nb.info/gnd/4331584-7"/>
+    <hyperlink ref="E46" r:id="rId47" display="https://d-nb.info/gnd/4032055-8"/>
+    <hyperlink ref="E48" r:id="rId48" display="https://d-nb.info/gnd/4052020-1"/>
+    <hyperlink ref="E49" r:id="rId49" display="https://d-nb.info/gnd/4452586-2"/>
+    <hyperlink ref="G49" r:id="rId50" display="http://terminology.lido-schema.org/lido00029"/>
+    <hyperlink ref="E50" r:id="rId51" display="https://d-nb.info/gnd/4236166-7"/>
+    <hyperlink ref="E52" r:id="rId52" display="http://d-nb.info/gnd/4187925-9"/>
+    <hyperlink ref="G52" r:id="rId53" display="http://terminology.lido-schema.org/lido00228"/>
+    <hyperlink ref="E53" r:id="rId54" display="https://d-nb.info/gnd/4127117-8"/>
+    <hyperlink ref="G53" r:id="rId55" display="http://terminology.lido-schema.org/lido00401"/>
+    <hyperlink ref="E54" r:id="rId56" display="https://d-nb.info/gnd/4117405-7"/>
+    <hyperlink ref="E55" r:id="rId57" display="https://d-nb.info/gnd/4064035-8"/>
+    <hyperlink ref="E57" r:id="rId58" display="https://d-nb.info/gnd/4222882-7"/>
+    <hyperlink ref="G57" r:id="rId59" display="http://terminology.lido-schema.org/lido00026"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
